--- a/doc/prd/pr.xlsx
+++ b/doc/prd/pr.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Bee-MOM-MES\doc\prd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GD\本\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B75DCCF-3E0B-4071-BC10-DA0662FB4156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA8C824-DF3E-4136-98D0-91124615F62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="395">
   <si>
     <t>企业主数据管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -392,6 +393,1218 @@
   </si>
   <si>
     <t>编码规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updatetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织架构管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所需人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车间编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车间名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作站编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作站名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作站地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在车间ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属工序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级分类ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品主数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产线编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产线名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产线地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在产线ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>危险等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工装编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工装名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已生产数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下发日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品与工单关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车间ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产线ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工艺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报工类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报工数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报工人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报工时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常工单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常工位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工艺编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工艺路线名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工艺说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下发时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图纸文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质检编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质检名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质检工位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质检员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质检员ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过程检验编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工艺节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺陷编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺陷名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺陷类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺陷位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合格证编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合格证名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合格证类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合格证信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>料框编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>料框名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>料框类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>料框位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配盘编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配盘名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配盘位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工装ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>料点编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>料点名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>料点负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>料点位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大容积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叫料编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叫料名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叫料数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叫料位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配盘ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还框编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还框名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>料框ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存区ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存区编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存区名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存区负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存区位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减配编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库房位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退库编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转移调拨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售出库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售退货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购退库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余容积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保养编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保养类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保养时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点检编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点检类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点检时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保修编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保修描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保修截止时间时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工艺名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工序编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工序名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备履历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拧紧作业编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拧紧作业名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拧紧作业设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加注作业编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加注作业名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加注作业设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术单通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术单编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术单名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工艺问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工艺问题编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工艺问题详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上报人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工艺纪律问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工艺纪律问题编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单下发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派工编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人/设备编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开工时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完工时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工艺信息管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工序信息管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工序说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完工/暂停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因、描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外购外协来料检验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外协来料编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来料名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库房ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合格票编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作台编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库检验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出场检验编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库检验编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后质量管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后索赔管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计量器具台账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器具编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器具名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器具分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转移编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下料车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构件车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>料盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叫料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一个料点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待完工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装配车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体完工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时不做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,7 +1612,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,13 +1627,40 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -435,7 +1675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -443,10 +1683,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -732,7 +1987,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -757,45 +2012,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="3" t="s">
         <v>49</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -803,25 +2058,25 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="3" t="s">
         <v>60</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -829,25 +2084,25 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N4" s="1" t="s">
@@ -858,25 +2113,25 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="3" t="s">
         <v>63</v>
       </c>
       <c r="O5" s="1" t="s">
@@ -884,26 +2139,26 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="3" t="s">
         <v>64</v>
       </c>
       <c r="O6" s="1" t="s">
@@ -911,28 +2166,28 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="3" t="s">
         <v>65</v>
       </c>
       <c r="O7" s="1" t="s">
@@ -940,26 +2195,26 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="1" t="s">
+      <c r="H8" s="7"/>
+      <c r="I8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="3" t="s">
         <v>66</v>
       </c>
       <c r="O8" s="1" t="s">
@@ -967,25 +2222,25 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="3" t="s">
         <v>67</v>
       </c>
       <c r="O9" s="1" t="s">
@@ -996,19 +2251,19 @@
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="3" t="s">
         <v>68</v>
       </c>
       <c r="O10" s="1" t="s">
@@ -1016,19 +2271,19 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="3" t="s">
         <v>69</v>
       </c>
       <c r="O11" s="1" t="s">
@@ -1036,32 +2291,94 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C13" s="9" t="s">
+        <v>392</v>
+      </c>
       <c r="M13" s="1" t="s">
         <v>79</v>
       </c>
     </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="I14" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+    </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>82</v>
       </c>
+      <c r="C17" s="1" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1069,12 +2386,12 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1097,9 +2414,2756 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A15:O16"/>
+    <mergeCell ref="E14:G14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EF61A5-A8E8-4D07-999A-B4BF96372CB6}">
+  <dimension ref="A2:Z113"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="10.625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="C7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="C14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="C17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="C20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="C23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="C29" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91" s="6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A96" s="3"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A97" s="3"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A98" s="3"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A100" s="3"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A102" s="3"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B50:B51"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
